--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/24.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/24.xlsx
@@ -479,13 +479,13 @@
         <v>-0.284653228196026</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.597581286396838</v>
+        <v>-1.59822506021745</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1542075544635493</v>
+        <v>0.1538014575302537</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2458687556930531</v>
+        <v>-0.2456830214367396</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2912650398946173</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.52892021129702</v>
+        <v>-1.530237665301549</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1020319686306741</v>
+        <v>0.102083911261677</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2491867880007549</v>
+        <v>-0.2489396669987107</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2897048113284174</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.482666085398478</v>
+        <v>-1.484901192550725</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0975554582496949</v>
+        <v>0.09768924987500546</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2591660692298013</v>
+        <v>-0.2590684800442806</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2751556402311318</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.552159029603904</v>
+        <v>-1.554181644174775</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1243326715412622</v>
+        <v>0.1251228291401552</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2355636525058974</v>
+        <v>-0.235618743175143</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.25258667668011</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.587387938567295</v>
+        <v>-1.588815573910315</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1085893322900127</v>
+        <v>0.1099146563901479</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2614814513572346</v>
+        <v>-0.2615979287722108</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2287759894988439</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.474470954843426</v>
+        <v>-1.475664061337372</v>
       </c>
       <c r="F7" t="n">
-        <v>0.121127968610294</v>
+        <v>0.1231678973914997</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2532524793910746</v>
+        <v>-0.2534287695326602</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2074477878312337</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.260916697570516</v>
+        <v>-1.261084330606935</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1569101452948225</v>
+        <v>0.1595639415333355</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2595847583160673</v>
+        <v>-0.2599200243889043</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1886407320362633</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.005318028538983</v>
+        <v>-1.004790732133347</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1780570921894973</v>
+        <v>0.1813766985163204</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2571214183912317</v>
+        <v>-0.2575589957069533</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1732843524910032</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.593538099205949</v>
+        <v>-0.5924268417063107</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1666013810246709</v>
+        <v>0.1701334799328696</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1649075081698309</v>
+        <v>-0.1656079466788097</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1620761635355466</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.221778393041546</v>
+        <v>-0.2201288210024229</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1365014133680378</v>
+        <v>0.1398430559625592</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1294291171757134</v>
+        <v>-0.1299390993710148</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1512971390931722</v>
       </c>
       <c r="E12" t="n">
-        <v>0.238820526348189</v>
+        <v>0.2407298115423268</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1026269478585257</v>
+        <v>0.1054302759135622</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03897496033192675</v>
+        <v>-0.03926930190760999</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1320029490214868</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7621929023145169</v>
+        <v>0.7652827018496301</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.005080032573837745</v>
+        <v>-0.003348611540406988</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05476260039889311</v>
+        <v>0.05463195681182515</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.09577040858297475</v>
       </c>
       <c r="E14" t="n">
-        <v>1.306279369917162</v>
+        <v>1.309891743800547</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2300860659637711</v>
+        <v>-0.2279595661308938</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1586777687680432</v>
+        <v>0.1589091495788744</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.03963664906795408</v>
       </c>
       <c r="E15" t="n">
-        <v>1.867536812114076</v>
+        <v>1.871199554609343</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4416279397900983</v>
+        <v>-0.4393503341215762</v>
       </c>
       <c r="G15" t="n">
-        <v>0.292340324510655</v>
+        <v>0.2926142038377613</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.03545007534312804</v>
       </c>
       <c r="E16" t="n">
-        <v>2.338462870958665</v>
+        <v>2.342419955029615</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6654062382654171</v>
+        <v>-0.6634576025932468</v>
       </c>
       <c r="G16" t="n">
-        <v>0.436840001903422</v>
+        <v>0.4372224885498981</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1236603702071789</v>
       </c>
       <c r="E17" t="n">
-        <v>2.792773583958803</v>
+        <v>2.796946308649372</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8775887378741137</v>
+        <v>-0.8763539198734533</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5556721494851388</v>
+        <v>0.556542582059218</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2176762479710339</v>
       </c>
       <c r="E18" t="n">
-        <v>3.215706225775813</v>
+        <v>3.219158049708825</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.205815797200704</v>
+        <v>-1.204781666638009</v>
       </c>
       <c r="G18" t="n">
-        <v>0.676940878666629</v>
+        <v>0.6778742720055603</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3134542284821905</v>
       </c>
       <c r="E19" t="n">
-        <v>3.59007250760509</v>
+        <v>3.593277210536058</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.504297830182514</v>
+        <v>-1.504153807432915</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8380700680759378</v>
+        <v>0.8390176275869607</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.40920957699382</v>
       </c>
       <c r="E20" t="n">
-        <v>3.712537491318769</v>
+        <v>3.716200233814035</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.840448501765731</v>
+        <v>-1.840539007865206</v>
       </c>
       <c r="G20" t="n">
-        <v>1.01456011009002</v>
+        <v>1.015710718067691</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5031685946501689</v>
       </c>
       <c r="E21" t="n">
-        <v>3.962302845486762</v>
+        <v>3.965567361144339</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.076937004645553</v>
+        <v>-2.0777200791584</v>
       </c>
       <c r="G21" t="n">
-        <v>1.182677944397904</v>
+        <v>1.183922993522853</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5937009271987033</v>
       </c>
       <c r="E22" t="n">
-        <v>4.167273189481659</v>
+        <v>4.171076019678721</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.373715161928555</v>
+        <v>-2.373877285898049</v>
       </c>
       <c r="G22" t="n">
-        <v>1.322894715761612</v>
+        <v>1.3243569795253</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6796884061018313</v>
       </c>
       <c r="E23" t="n">
-        <v>4.393129193197094</v>
+        <v>4.396631385741989</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.505211867360257</v>
+        <v>-2.505436165085043</v>
       </c>
       <c r="G23" t="n">
-        <v>1.494593443570455</v>
+        <v>1.496153296519664</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7612958743597588</v>
       </c>
       <c r="E24" t="n">
-        <v>4.520937971827589</v>
+        <v>4.524152118873285</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.619793376304901</v>
+        <v>-2.619655649631787</v>
       </c>
       <c r="G24" t="n">
-        <v>1.598603053086883</v>
+        <v>1.600331326082071</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8385127426750065</v>
       </c>
       <c r="E25" t="n">
-        <v>4.662890886282091</v>
+        <v>4.665554126635332</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.817146254762263</v>
+        <v>-2.816485166731317</v>
       </c>
       <c r="G25" t="n">
-        <v>1.661814086979197</v>
+        <v>1.663539211936143</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9101308990675833</v>
       </c>
       <c r="E26" t="n">
-        <v>4.777337816591865</v>
+        <v>4.779675234986996</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.90723681318903</v>
+        <v>-2.906602483483145</v>
       </c>
       <c r="G26" t="n">
-        <v>1.705239700516762</v>
+        <v>1.706760202987938</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9728569661713423</v>
       </c>
       <c r="E27" t="n">
-        <v>4.889481956927175</v>
+        <v>4.891155139253117</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.980582169193839</v>
+        <v>-2.979544103583341</v>
       </c>
       <c r="G27" t="n">
-        <v>1.756072648039168</v>
+        <v>1.757508153477794</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.023657333470629</v>
       </c>
       <c r="E28" t="n">
-        <v>4.889579546112695</v>
+        <v>4.891421148484617</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.070662496496316</v>
+        <v>-3.069582719379104</v>
       </c>
       <c r="G28" t="n">
-        <v>1.797754248390331</v>
+        <v>1.799296787129206</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.06236540519784</v>
       </c>
       <c r="E29" t="n">
-        <v>4.899544661169649</v>
+        <v>4.901394133637178</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.085048244255444</v>
+        <v>-3.084050316132539</v>
       </c>
       <c r="G29" t="n">
-        <v>1.72854462762674</v>
+        <v>1.730272900621928</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.087739456566723</v>
       </c>
       <c r="E30" t="n">
-        <v>4.841304379662403</v>
+        <v>4.843342734424487</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.075128775753007</v>
+        <v>-3.074090710142509</v>
       </c>
       <c r="G30" t="n">
-        <v>1.69244607309883</v>
+        <v>1.693957131455278</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.097144103154885</v>
       </c>
       <c r="E31" t="n">
-        <v>4.716505125591835</v>
+        <v>4.718349876002</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.064680436825813</v>
+        <v>-3.063638436167512</v>
       </c>
       <c r="G31" t="n">
-        <v>1.633744603989042</v>
+        <v>1.635250940288127</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.088986855992101</v>
       </c>
       <c r="E32" t="n">
-        <v>4.63714937757234</v>
+        <v>4.63897681377217</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.026079191895035</v>
+        <v>-3.025186723053257</v>
       </c>
       <c r="G32" t="n">
-        <v>1.596364797896393</v>
+        <v>1.597587810753644</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.063019922928101</v>
       </c>
       <c r="E33" t="n">
-        <v>4.560721305118464</v>
+        <v>4.56178219400622</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.957138728401186</v>
+        <v>-2.956158114488616</v>
       </c>
       <c r="G33" t="n">
-        <v>1.567843571418425</v>
+        <v>1.568718726049868</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.020481929289117</v>
       </c>
       <c r="E34" t="n">
-        <v>4.357904219281506</v>
+        <v>4.359575827588327</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.885464193693638</v>
+        <v>-2.884321455811574</v>
       </c>
       <c r="G34" t="n">
-        <v>1.517796059437548</v>
+        <v>1.518378446512429</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9643858046317709</v>
       </c>
       <c r="E35" t="n">
-        <v>4.133315300958718</v>
+        <v>4.134667383383915</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.854392269229602</v>
+        <v>-2.853118887760469</v>
       </c>
       <c r="G35" t="n">
-        <v>1.396266043081922</v>
+        <v>1.396798061544922</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8988820539101002</v>
       </c>
       <c r="E36" t="n">
-        <v>3.983009067027472</v>
+        <v>3.984153378928658</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.82954559039031</v>
+        <v>-2.828209248156325</v>
       </c>
       <c r="G36" t="n">
-        <v>1.370395464804224</v>
+        <v>1.370737026953546</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8278441844476448</v>
       </c>
       <c r="E37" t="n">
-        <v>3.787582000965021</v>
+        <v>3.788454007558222</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.765724624088491</v>
+        <v>-2.764304858841078</v>
       </c>
       <c r="G37" t="n">
-        <v>1.282952406539486</v>
+        <v>1.283341189262447</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7542043557008472</v>
       </c>
       <c r="E38" t="n">
-        <v>3.719217628469569</v>
+        <v>3.719527710236465</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.73507060170116</v>
+        <v>-2.733429686767205</v>
       </c>
       <c r="G38" t="n">
-        <v>1.24040981772897</v>
+        <v>1.240510554952734</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6791211279303414</v>
       </c>
       <c r="E39" t="n">
-        <v>3.509608650124199</v>
+        <v>3.50967003686993</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.753139554204131</v>
+        <v>-2.751512805442268</v>
       </c>
       <c r="G39" t="n">
-        <v>1.165218924304437</v>
+        <v>1.16542826884757</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6036044424679459</v>
       </c>
       <c r="E40" t="n">
-        <v>3.263973522130498</v>
+        <v>3.264160830405933</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.7189754691763</v>
+        <v>-2.717351868452679</v>
       </c>
       <c r="G40" t="n">
-        <v>1.101102829417374</v>
+        <v>1.101312173960507</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.528358484469396</v>
       </c>
       <c r="E41" t="n">
-        <v>3.092307848723203</v>
+        <v>3.092268498245171</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.658147500233635</v>
+        <v>-2.65683476828647</v>
       </c>
       <c r="G41" t="n">
-        <v>1.069312365224464</v>
+        <v>1.069424120582077</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4538414736371264</v>
       </c>
       <c r="E42" t="n">
-        <v>2.979682058536775</v>
+        <v>2.979176798398838</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.627393527632102</v>
+        <v>-2.62586594207488</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9849984569728718</v>
+        <v>0.9851763211335788</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3798249343192056</v>
       </c>
       <c r="E43" t="n">
-        <v>2.847015856897946</v>
+        <v>2.846087185616379</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.611052848124319</v>
+        <v>-2.609369434674087</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9328543515224226</v>
+        <v>0.9330573999890703</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3069287386893564</v>
       </c>
       <c r="E44" t="n">
-        <v>2.719321981663307</v>
+        <v>2.718314609425674</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.538945458158413</v>
+        <v>-2.537369865017991</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8689129727578248</v>
+        <v>0.8688279757252745</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2353355306388355</v>
       </c>
       <c r="E45" t="n">
-        <v>2.522667180686241</v>
+        <v>2.521502406536479</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.47340094091877</v>
+        <v>-2.471922936963869</v>
       </c>
       <c r="G45" t="n">
-        <v>0.839138827059301</v>
+        <v>0.839055404045872</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1644286049501124</v>
       </c>
       <c r="E46" t="n">
-        <v>2.397348500305645</v>
+        <v>2.396007436014297</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.434280269677963</v>
+        <v>-2.432321402881504</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7757609471401288</v>
+        <v>0.7756460437442738</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.09391042203570055</v>
       </c>
       <c r="E47" t="n">
-        <v>2.234295859530107</v>
+        <v>2.233082290787583</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.298283443578462</v>
+        <v>-2.296747200916073</v>
       </c>
       <c r="G47" t="n">
-        <v>0.719384304272502</v>
+        <v>0.7192017180544311</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.02428139029944162</v>
       </c>
       <c r="E48" t="n">
-        <v>2.147003907101013</v>
+        <v>2.145414147788499</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.257868141610385</v>
+        <v>-2.255819555724012</v>
       </c>
       <c r="G48" t="n">
-        <v>0.670753409500796</v>
+        <v>0.6705236027090861</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.04417235751856947</v>
       </c>
       <c r="E49" t="n">
-        <v>1.994021840663556</v>
+        <v>1.992339214222886</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.206045136060681</v>
+        <v>-2.203964282782322</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5963810060193385</v>
+        <v>0.595954446837466</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1114828371307655</v>
       </c>
       <c r="E50" t="n">
-        <v>1.900979996384351</v>
+        <v>1.899509862525057</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.158627810031498</v>
+        <v>-2.156544595724457</v>
       </c>
       <c r="G50" t="n">
-        <v>0.539524287319715</v>
+        <v>0.5391480967497242</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1769085957165423</v>
       </c>
       <c r="E51" t="n">
-        <v>1.777014972448073</v>
+        <v>1.775691222367059</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.108769967354738</v>
+        <v>-2.106636384435815</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4943782708825687</v>
+        <v>0.4938399563430839</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2397731502285229</v>
       </c>
       <c r="E52" t="n">
-        <v>1.665357204021245</v>
+        <v>1.66443168077792</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.989531722839726</v>
+        <v>-1.987792431710689</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4588589553912974</v>
+        <v>0.458380453578422</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2993350978894005</v>
       </c>
       <c r="E53" t="n">
-        <v>1.622768968656212</v>
+        <v>1.621380683791225</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.930042457159727</v>
+        <v>-1.928369274833784</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3872017348940835</v>
+        <v>0.3869404477199477</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.3554583516506409</v>
       </c>
       <c r="E54" t="n">
-        <v>1.580467204771256</v>
+        <v>1.5787043033554</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.919976604879009</v>
+        <v>-1.918208194396228</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3528109911127849</v>
+        <v>0.3524521147531283</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.4075173916867268</v>
       </c>
       <c r="E55" t="n">
-        <v>1.526154100971655</v>
+        <v>1.524321942714461</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.85443602268717</v>
+        <v>-1.852679417347798</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3260306297829749</v>
+        <v>0.3255159255303096</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.4550198186079421</v>
       </c>
       <c r="E56" t="n">
-        <v>1.468595369743931</v>
+        <v>1.466177676373613</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.792044265747492</v>
+        <v>-1.790422239042992</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2176531172049374</v>
+        <v>0.2175429358664463</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.4981854197822352</v>
       </c>
       <c r="E57" t="n">
-        <v>1.479349068380658</v>
+        <v>1.477120257304896</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.789782400270183</v>
+        <v>-1.788333515669026</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2188383536032768</v>
+        <v>0.2187328943221497</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.5372321744703099</v>
       </c>
       <c r="E58" t="n">
-        <v>1.4652899295892</v>
+        <v>1.462895846505701</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.774722972327139</v>
+        <v>-1.773201682846402</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2145113750388212</v>
+        <v>0.2144137858533006</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.5718053901446521</v>
       </c>
       <c r="E59" t="n">
-        <v>1.454180502631059</v>
+        <v>1.451492077971878</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.737683941374252</v>
+        <v>-1.736530972367899</v>
       </c>
       <c r="G59" t="n">
-        <v>0.140124805385272</v>
+        <v>0.1402822072974021</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.6011779178087669</v>
       </c>
       <c r="E60" t="n">
-        <v>1.488524025838719</v>
+        <v>1.485069053867464</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.770412520963457</v>
+        <v>-1.769117890236187</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1200230071871409</v>
+        <v>0.1201662429271793</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.6255343962838674</v>
       </c>
       <c r="E61" t="n">
-        <v>1.486970468965995</v>
+        <v>1.483339206853155</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.788812804491462</v>
+        <v>-1.78746701814275</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1327458037446144</v>
+        <v>0.132733211591644</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.6456674852240192</v>
       </c>
       <c r="E62" t="n">
-        <v>1.498841721178845</v>
+        <v>1.494991670408144</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.832991586178569</v>
+        <v>-1.831653669925464</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0446762858695983</v>
+        <v>0.04498636763649453</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.6627402732679281</v>
       </c>
       <c r="E63" t="n">
-        <v>1.486156701080283</v>
+        <v>1.482212209162303</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.793331026379156</v>
+        <v>-1.792493648206624</v>
       </c>
       <c r="G63" t="n">
-        <v>0.01027609797357177</v>
+        <v>0.01053423710946508</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.6775570664160305</v>
       </c>
       <c r="E64" t="n">
-        <v>1.488267460721947</v>
+        <v>1.484215935503719</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.820906267365222</v>
+        <v>-1.820021668619051</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.02005052843652859</v>
+        <v>-0.01991201475385412</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.6905134897369201</v>
       </c>
       <c r="E65" t="n">
-        <v>1.499696413561711</v>
+        <v>1.495437117819472</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.846384914881717</v>
+        <v>-1.845507399221592</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02299079615511827</v>
+        <v>-0.02276098936340837</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.7015114801976522</v>
       </c>
       <c r="E66" t="n">
-        <v>1.462971399423524</v>
+        <v>1.458978112912784</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.851354880257224</v>
+        <v>-1.85070874540793</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.0313000430964646</v>
+        <v>-0.03094431477505065</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7105035309398102</v>
       </c>
       <c r="E67" t="n">
-        <v>1.429115822143467</v>
+        <v>1.424928931280808</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.862827905632384</v>
+        <v>-1.862366718029843</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.05040233915256975</v>
+        <v>-0.05009855346215872</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.7170537994748076</v>
       </c>
       <c r="E68" t="n">
-        <v>1.379194231692295</v>
+        <v>1.374900307529386</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.892429696237126</v>
+        <v>-1.892103874279016</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.05765227122528072</v>
+        <v>-0.05760032859427779</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.7204145541973044</v>
       </c>
       <c r="E69" t="n">
-        <v>1.274485757686009</v>
+        <v>1.270464138831086</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.913712795785793</v>
+        <v>-1.913427898324837</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.07996714030796057</v>
+        <v>-0.07976723987955538</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.7196988453554791</v>
       </c>
       <c r="E70" t="n">
-        <v>1.291820430268894</v>
+        <v>1.287221146396453</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.918378975470889</v>
+        <v>-1.918707945467241</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.04837185448609186</v>
+        <v>-0.04826167314760081</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.7137816262950031</v>
       </c>
       <c r="E71" t="n">
-        <v>1.284630310922792</v>
+        <v>1.279889365329434</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.952324271840859</v>
+        <v>-1.952692592315244</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.06796681852716413</v>
+        <v>-0.0681320905349007</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7017955109183135</v>
       </c>
       <c r="E72" t="n">
-        <v>1.268419487992516</v>
+        <v>1.263274019484984</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.981609684602219</v>
+        <v>-1.982237718231618</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1032941036856368</v>
+        <v>-0.1033177139724563</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6830814988634221</v>
       </c>
       <c r="E73" t="n">
-        <v>1.273402832530554</v>
+        <v>1.267876451395668</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.981224836927061</v>
+        <v>-1.981960690866269</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.09046112578967225</v>
+        <v>-0.0905555669369503</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6576842481310333</v>
       </c>
       <c r="E74" t="n">
-        <v>1.268166070913987</v>
+        <v>1.261862124333178</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.988881652942629</v>
+        <v>-1.989801667119029</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07096375093412063</v>
+        <v>-0.07118096557286013</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6260673973033365</v>
       </c>
       <c r="E75" t="n">
-        <v>1.211735911396236</v>
+        <v>1.205403632471243</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.021613380570076</v>
+        <v>-2.022570384195827</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04277621650986792</v>
+        <v>-0.04315083306073748</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5901762619076384</v>
       </c>
       <c r="E76" t="n">
-        <v>1.247008105885463</v>
+        <v>1.23997381443237</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.024472586303919</v>
+        <v>-2.025602732033013</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.02265710410140253</v>
+        <v>-0.02324736127189028</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5522821854519273</v>
       </c>
       <c r="E77" t="n">
-        <v>1.18056718475624</v>
+        <v>1.172963098381236</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.021947072623792</v>
+        <v>-2.023271609714367</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02445620795704921</v>
+        <v>-0.0248953592918921</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5145260297542421</v>
       </c>
       <c r="E78" t="n">
-        <v>1.199604946028372</v>
+        <v>1.191678185733501</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.032462307363641</v>
+        <v>-2.033850592228629</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.01932333160248767</v>
+        <v>-0.01997497551870615</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4770229878485651</v>
       </c>
       <c r="E79" t="n">
-        <v>1.184510102655098</v>
+        <v>1.17619928169463</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.009470610058802</v>
+        <v>-2.011105228916273</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.04122895571362934</v>
+        <v>-0.04169801341177694</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4387903825371393</v>
       </c>
       <c r="E80" t="n">
-        <v>1.161559329847413</v>
+        <v>1.1533634122828</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.971135374359524</v>
+        <v>-1.972374127407988</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.02497878230532104</v>
+        <v>-0.02562570416417562</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4000746379315701</v>
       </c>
       <c r="E81" t="n">
-        <v>1.185015362793035</v>
+        <v>1.177020919675949</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.924102108995938</v>
+        <v>-1.92539988776145</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.005289377116970736</v>
+        <v>-0.006079534715863681</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3614201012678639</v>
       </c>
       <c r="E82" t="n">
-        <v>1.24319268353543</v>
+        <v>1.234864548364628</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.953104985325025</v>
+        <v>-1.954013194358015</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02261798190369046</v>
+        <v>0.02167829248827395</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3225557987183033</v>
       </c>
       <c r="E83" t="n">
-        <v>1.329135701577569</v>
+        <v>1.321027929083749</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.847914861467621</v>
+        <v>-1.848583032584613</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01463927897781727</v>
+        <v>0.01390893410553375</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2830091460533907</v>
       </c>
       <c r="E84" t="n">
-        <v>1.321286068219642</v>
+        <v>1.313785867106645</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.787300172115892</v>
+        <v>-1.787537061993648</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02495382627970068</v>
+        <v>0.02427699805754138</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2428563434426689</v>
       </c>
       <c r="E85" t="n">
-        <v>1.429255909845263</v>
+        <v>1.4223790203043</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.760146768254334</v>
+        <v>-1.759826455363149</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01831303960693308</v>
+        <v>0.01765982167159329</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2025906522478375</v>
       </c>
       <c r="E86" t="n">
-        <v>1.674305502725839</v>
+        <v>1.667891374806539</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.65575545910099</v>
+        <v>-1.654946413272642</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03386434852538387</v>
+        <v>0.03321900068565059</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1635231044325347</v>
       </c>
       <c r="E87" t="n">
-        <v>1.60547364655136</v>
+        <v>1.600537522586961</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.536359812673848</v>
+        <v>-1.535176937304191</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05452807154981931</v>
+        <v>0.05390475997778423</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1279803640726403</v>
       </c>
       <c r="E88" t="n">
-        <v>1.752690080947492</v>
+        <v>1.748388286688977</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.336149302501764</v>
+        <v>-1.334931011701878</v>
       </c>
       <c r="G88" t="n">
-        <v>0.09116494061721411</v>
+        <v>0.09057153540848376</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.09885857250227657</v>
       </c>
       <c r="E89" t="n">
-        <v>1.919740730291134</v>
+        <v>1.916246407841847</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.160744546671819</v>
+        <v>-1.159497136518188</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1148649465266386</v>
+        <v>0.1143108917959407</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.07713162903421331</v>
       </c>
       <c r="E90" t="n">
-        <v>1.939123201750831</v>
+        <v>1.936620511347963</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9198598083862043</v>
+        <v>-0.9185399933529937</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1437481974025062</v>
+        <v>0.1432051608056575</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.06306196484746532</v>
       </c>
       <c r="E91" t="n">
-        <v>1.977044470421207</v>
+        <v>1.974911674511845</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6672557107329454</v>
+        <v>-0.6655321597951211</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09610263860073437</v>
+        <v>0.09586496171341796</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.05711644789371232</v>
       </c>
       <c r="E92" t="n">
-        <v>1.993074281152533</v>
+        <v>1.991333416004375</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4618414933458417</v>
+        <v>-0.4599196159987336</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1075237213448922</v>
+        <v>0.1072230836927237</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.06080217785930316</v>
       </c>
       <c r="E93" t="n">
-        <v>1.966358454606697</v>
+        <v>1.96466795807042</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2407815258930092</v>
+        <v>-0.2390752891655193</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09244304414371027</v>
+        <v>0.09208101974581111</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.07518965783669225</v>
       </c>
       <c r="E94" t="n">
-        <v>1.853169165574843</v>
+        <v>1.851565240090238</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.057606624670763</v>
+        <v>-0.05584529727402752</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06710763236725439</v>
+        <v>0.06678810648563036</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.101373370809913</v>
       </c>
       <c r="E95" t="n">
-        <v>1.801675130021491</v>
+        <v>1.800491467642273</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07335176622145423</v>
+        <v>0.07530512395098839</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05493574250223618</v>
+        <v>0.05455797791312401</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1388033320640891</v>
       </c>
       <c r="E96" t="n">
-        <v>1.673208411398293</v>
+        <v>1.672105023994261</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1463406068952884</v>
+        <v>0.1481161004641156</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.004950963005891088</v>
+        <v>-0.005215398218269603</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1851218888605485</v>
       </c>
       <c r="E97" t="n">
-        <v>1.506442659515606</v>
+        <v>1.506005082199885</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1496444730308986</v>
+        <v>0.1515852386074623</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02017487594711134</v>
+        <v>-0.02052588221116139</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2328231152929692</v>
       </c>
       <c r="E98" t="n">
-        <v>1.392436454559797</v>
+        <v>1.392109058582567</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1778587657802134</v>
+        <v>0.1796012049474933</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05826299064434538</v>
+        <v>-0.05883750762362013</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2726643743307681</v>
       </c>
       <c r="E99" t="n">
-        <v>1.251997746499986</v>
+        <v>1.252019782767684</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1807077403897676</v>
+        <v>0.1824061070216511</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09814706115898351</v>
+        <v>-0.09859250857031161</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2889598822685447</v>
       </c>
       <c r="E100" t="n">
-        <v>1.09222693559236</v>
+        <v>1.092458316403191</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2376289938733644</v>
+        <v>0.2388677469218281</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1456604023545661</v>
+        <v>-0.1459578919684919</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2785845840329405</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9090677745613266</v>
+        <v>0.909917744886829</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2194774053665249</v>
+        <v>0.2208105995622666</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1714192252746518</v>
+        <v>-0.171844210437403</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2408675516913956</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8496674409616812</v>
+        <v>0.8503017706675654</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2580692061825751</v>
+        <v>0.2590702823437224</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2095388203543119</v>
+        <v>-0.209905566809575</v>
       </c>
     </row>
   </sheetData>
